--- a/PPG/Blog_externos.xlsx
+++ b/PPG/Blog_externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50066FD5-DB1B-9C41-AB5C-1EBB32B58093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AAE1B-4349-7A4F-AB23-D4CA7B298664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Publicação</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>https://www.iasp-pain.org/publications/relief-news/article/text-neck-pain/</t>
+  </si>
+  <si>
+    <t>Superação no esporte</t>
+  </si>
+  <si>
+    <t>https://jornalismorio.espm.br/portal/superacao-no-esporte/</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A0B706-7D6A-0B4B-9FAF-9D5F61DDE500}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,45 +581,57 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>43642</v>
+        <v>43732</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>43580</v>
+        <v>43642</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>43530</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
-    <sortCondition descending="1" ref="A2:A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+    <sortCondition descending="1" ref="A2:A6"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{EABD1383-6C5F-234B-9594-558C0F9AC46E}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{9AAE8C4B-1B0F-3E44-B283-746283EC2E9D}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{EABD1383-6C5F-234B-9594-558C0F9AC46E}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{9AAE8C4B-1B0F-3E44-B283-746283EC2E9D}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{E0D00FB4-4C96-D446-9163-7DF716F9CD67}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{796EEEC2-1766-FF4D-AC18-FD885BC3DCA6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Blog_externos.xlsx
+++ b/PPG/Blog_externos.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AAE1B-4349-7A4F-AB23-D4CA7B298664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E530E-B427-9D48-87F0-17576FD4A51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="8" r:id="rId1"/>
-    <sheet name="2018" sheetId="7" r:id="rId2"/>
-    <sheet name="2017" sheetId="6" r:id="rId3"/>
-    <sheet name="2015" sheetId="11" r:id="rId4"/>
-    <sheet name="2013" sheetId="9" r:id="rId5"/>
-    <sheet name="2010" sheetId="14" r:id="rId6"/>
+    <sheet name="2022" sheetId="15" r:id="rId1"/>
+    <sheet name="2019" sheetId="8" r:id="rId2"/>
+    <sheet name="2018" sheetId="7" r:id="rId3"/>
+    <sheet name="2017" sheetId="6" r:id="rId4"/>
+    <sheet name="2015" sheetId="11" r:id="rId5"/>
+    <sheet name="2013" sheetId="9" r:id="rId6"/>
+    <sheet name="2010" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Publicação</t>
   </si>
@@ -168,6 +169,15 @@
   </si>
   <si>
     <t>https://jornalismorio.espm.br/portal/superacao-no-esporte/</t>
+  </si>
+  <si>
+    <t>https://unilavras.edu.br/2022/10/06/simposio-abordou-atuacao-do-fisioterapeuta-na-dor-do-paciente/nggallery/page/3</t>
+  </si>
+  <si>
+    <t>Simpósio abordou atuação do fisioterapeuta na dor do paciente</t>
+  </si>
+  <si>
+    <t>07/102022</t>
   </si>
 </sst>
 </file>
@@ -223,14 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -545,10 +553,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737D954-942D-7D47-B162-11BE628278CF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A0B706-7D6A-0B4B-9FAF-9D5F61DDE500}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -637,7 +688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -662,10 +713,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>43435</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -673,10 +724,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43430</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -684,10 +735,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43425</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -695,10 +746,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43412</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -779,7 +830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDD696-0EC2-6943-8192-402E1F595E40}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -825,7 +876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D54DF-EE82-5F4E-81E4-885ED173C8CE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -871,7 +922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64BFB7-250C-AD46-B331-D8891189F904}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -896,10 +947,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>41620</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -929,7 +980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8838102D-5892-CA4F-8A73-3527BD37268F}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/PPG/Blog_externos.xlsx
+++ b/PPG/Blog_externos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE54310-1C25-3D4B-B0A3-CCE84C838056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF13694-6334-2B4E-9E03-DDB5463271DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Publicação</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>https://blogs.bmj.com/bmjopensem/2022/11/22/stories-that-inspire-with-gustavo-telles/</t>
+  </si>
+  <si>
+    <t>OsteoBlast - Publication of the American Academy of Osteopathy</t>
+  </si>
+  <si>
+    <t>https://multibriefs.com/briefs/AAOORG/AAOORG122122.php</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737D954-942D-7D47-B162-11BE628278CF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,30 +587,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44887</v>
+        <v>44916</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
+        <v>44887</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44841</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{2B8F926B-B369-D446-AE6A-1A6D21318EEA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3C353235-8DAB-1F42-87F9-8894F5B95111}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{4A73298F-F020-2040-84A4-55E4508C10D3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Blog_externos.xlsx
+++ b/PPG/Blog_externos.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF13694-6334-2B4E-9E03-DDB5463271DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7462C-5FF5-1347-BADC-ED11FF835DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="15" r:id="rId1"/>
-    <sheet name="2019" sheetId="8" r:id="rId2"/>
-    <sheet name="2018" sheetId="7" r:id="rId3"/>
-    <sheet name="2017" sheetId="6" r:id="rId4"/>
-    <sheet name="2015" sheetId="11" r:id="rId5"/>
-    <sheet name="2013" sheetId="9" r:id="rId6"/>
-    <sheet name="2010" sheetId="14" r:id="rId7"/>
+    <sheet name="2023" sheetId="16" r:id="rId1"/>
+    <sheet name="2022" sheetId="15" r:id="rId2"/>
+    <sheet name="2019" sheetId="8" r:id="rId3"/>
+    <sheet name="2018" sheetId="7" r:id="rId4"/>
+    <sheet name="2017" sheetId="6" r:id="rId5"/>
+    <sheet name="2015" sheetId="11" r:id="rId6"/>
+    <sheet name="2013" sheetId="9" r:id="rId7"/>
+    <sheet name="2010" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Publicação</t>
   </si>
@@ -187,6 +188,12 @@
   </si>
   <si>
     <t>https://multibriefs.com/briefs/AAOORG/AAOORG122122.php</t>
+  </si>
+  <si>
+    <t>https://www.j1diario.com.br/pesquisa-oferece-tratamento-para-idosos-que-tenham-dor-lombar-cronica/</t>
+  </si>
+  <si>
+    <t>Pesquisa oferece tratamento para idosos que tenham dor lombar crônica</t>
   </si>
 </sst>
 </file>
@@ -267,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -555,15 +562,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737D954-942D-7D47-B162-11BE628278CF}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E4CB5A-363D-4943-B899-5CE4DD705651}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -587,6 +594,49 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>45035</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4CB9679B-6916-5546-81A0-BE462F01C707}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2737D954-942D-7D47-B162-11BE628278CF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>44916</v>
       </c>
       <c r="B2" t="s">
@@ -628,7 +678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A0B706-7D6A-0B4B-9FAF-9D5F61DDE500}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -721,7 +771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -863,7 +913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDD696-0EC2-6943-8192-402E1F595E40}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -909,7 +959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D54DF-EE82-5F4E-81E4-885ED173C8CE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -955,7 +1005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B64BFB7-250C-AD46-B331-D8891189F904}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1013,7 +1063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8838102D-5892-CA4F-8A73-3527BD37268F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
